--- a/data/extracted_data/raw/Gibble_etal_2016_Fig1-5.xlsx
+++ b/data/extracted_data/raw/Gibble_etal_2016_Fig1-5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C53975-B07E-E044-A12C-EE77EFD8C110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09178D7-CE84-1F40-8E7D-DC079E4FAFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16100" yWindow="1220" windowWidth="22760" windowHeight="18420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="20">
   <si>
     <t>study</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Pacific oyster</t>
-  </si>
-  <si>
-    <t>Moderate (7.71 ug/L)</t>
   </si>
 </sst>
 </file>
@@ -465,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -474,9 +471,9 @@
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1375,7 +1372,7 @@
         <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -1401,7 +1398,7 @@
         <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
@@ -1427,7 +1424,7 @@
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
@@ -1453,7 +1450,7 @@
         <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
@@ -1480,7 +1477,7 @@
         <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
@@ -1507,7 +1504,7 @@
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
         <v>5</v>
@@ -1534,7 +1531,7 @@
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
         <v>5</v>
@@ -1561,7 +1558,7 @@
         <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -1588,7 +1585,7 @@
         <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E43" t="s">
         <v>5</v>
@@ -1615,7 +1612,7 @@
         <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E44" t="s">
         <v>5</v>
@@ -1642,7 +1639,7 @@
         <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E45" t="s">
         <v>5</v>
@@ -1669,7 +1666,7 @@
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E46" t="s">
         <v>5</v>
@@ -1696,7 +1693,7 @@
         <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
